--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Maria_Pluta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Students\Maria_Pluta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0CD544-8D85-4766-A9DF-69DE62319E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66EC39-54CB-48AD-8608-90EA18D15F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="4836" windowWidth="23256" windowHeight="12708" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="142" r:id="rId1"/>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="191">
   <si>
     <t>Moc osiągalna elektryczna netto</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>Heat Only Plant</t>
   </si>
   <si>
-    <t>Low Voltage Electricity (&lt; 1kV)</t>
-  </si>
-  <si>
     <t>Low Temperature Heat</t>
   </si>
   <si>
@@ -1286,7 +1283,13 @@
     <t>ELEC_LV_DEM</t>
   </si>
   <si>
-    <t>*DEM</t>
+    <t>\I: DEM</t>
+  </si>
+  <si>
+    <t>\I: DMD</t>
+  </si>
+  <si>
+    <t>ELEC_HV-HV</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1803,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1963,6 +1966,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2005,8 +2010,18 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2519,45 +2534,45 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="36.53125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="42" customWidth="1"/>
     <col min="4" max="4" width="15" style="42" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="42" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="42" customWidth="1"/>
     <col min="7" max="7" width="10" style="42" customWidth="1"/>
     <col min="8" max="8" width="12" style="42" customWidth="1"/>
     <col min="9" max="9" width="11" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="42" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="42"/>
+    <col min="10" max="10" width="10.53125" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="8.86328125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="41"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="43"/>
-    </row>
-    <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
-        <v>167</v>
-      </c>
       <c r="C5" s="43"/>
     </row>
-    <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="83" t="s">
+    <row r="6" spans="2:10" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="B6" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>157</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>0</v>
@@ -2581,34 +2596,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="87"/>
+    <row r="7" spans="2:10" ht="51" x14ac:dyDescent="0.35">
+      <c r="B7" s="86"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="I7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="88"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="46" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="46" t="s">
         <v>8</v>
@@ -2631,12 +2646,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="49">
         <v>17023.8</v>
@@ -2654,12 +2669,12 @@
       <c r="I9" s="49"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B10" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="49">
         <v>7391.2</v>
@@ -2677,12 +2692,12 @@
       <c r="I10" s="49"/>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="49">
         <v>4094.6000000000022</v>
@@ -2702,12 +2717,12 @@
       <c r="I11" s="49"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B12" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="49">
         <v>1656.5</v>
@@ -2727,12 +2742,12 @@
         <v>32467</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="49">
         <v>6227.6934486274804</v>
@@ -2746,12 +2761,12 @@
       <c r="I13" s="49"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="49">
         <v>3954.96</v>
@@ -2765,12 +2780,12 @@
       <c r="I14" s="49"/>
       <c r="J14" s="50"/>
     </row>
-    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="51">
         <v>19.806000000000001</v>
@@ -2788,12 +2803,12 @@
       <c r="I15" s="49"/>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="54">
@@ -2809,77 +2824,77 @@
       <c r="I16" s="53"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B25" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="89" t="s">
+    <row r="27" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="91" t="s">
-        <v>158</v>
+      <c r="C27" s="93" t="s">
+        <v>157</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>21</v>
@@ -2889,26 +2904,26 @@
       </c>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
-      <c r="C28" s="92"/>
+    <row r="28" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="92"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B29" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E29" s="57">
         <v>0.97706171756374371</v>
@@ -2916,15 +2931,15 @@
       <c r="F29" s="43"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B30" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="57">
         <v>0.9764416403645515</v>
@@ -2932,46 +2947,46 @@
       <c r="F30" s="43"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B31" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="57">
         <v>0.9515253427786764</v>
       </c>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32" s="60">
         <v>0.85899999999999999</v>
       </c>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="61"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
@@ -2980,69 +2995,69 @@
       <c r="E34" s="61"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B35" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="61"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="61"/>
       <c r="F36" s="43"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="61"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.4">
       <c r="B38" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="43"/>
       <c r="E38" s="61"/>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
       <c r="E39" s="61"/>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B40" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
       <c r="E40" s="61"/>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="61"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="42" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="89" t="s">
+    <row r="42" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="91" t="s">
-        <v>158</v>
+      <c r="C42" s="93" t="s">
+        <v>157</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>25</v>
@@ -3052,23 +3067,23 @@
       </c>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="90"/>
-      <c r="C43" s="92"/>
+    <row r="43" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="92"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B44" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="46" t="s">
         <v>27</v>
@@ -3079,12 +3094,12 @@
       </c>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>28</v>
@@ -3095,16 +3110,16 @@
       </c>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B46" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B47" s="9" t="s">
         <v>19</v>
       </c>
@@ -3113,12 +3128,12 @@
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
     </row>
@@ -3141,28 +3156,28 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="2.88671875" customWidth="1"/>
+    <col min="1" max="2" width="2.86328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" customWidth="1"/>
+    <col min="11" max="11" width="10.46484375" customWidth="1"/>
     <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C2" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
@@ -3172,7 +3187,7 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="27"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3182,7 +3197,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="3:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="27" t="s">
         <v>29</v>
       </c>
@@ -3194,7 +3209,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="40" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="15" t="s">
         <v>65</v>
       </c>
@@ -3246,42 +3261,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>101</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E8" s="32"/>
       <c r="F8" s="30" t="s">
         <v>39</v>
       </c>
@@ -3296,7 +3309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="37" t="s">
         <v>38</v>
       </c>
@@ -3304,7 +3317,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>39</v>
@@ -3318,111 +3331,111 @@
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+    </row>
+    <row r="12" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="E14" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
-    </row>
-    <row r="12" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
-    </row>
-    <row r="13" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
-    </row>
-    <row r="14" spans="3:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="17"/>
       <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>2442</v>
       </c>
@@ -3433,7 +3446,7 @@
         <v>112786</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>46</v>
       </c>
@@ -3444,7 +3457,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>1032</v>
       </c>
@@ -3455,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E23">
         <v>16158</v>
       </c>
@@ -3466,7 +3479,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E24">
         <v>1301</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>94504</v>
       </c>
@@ -3489,7 +3502,7 @@
         <v>115184</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E26">
         <f>SUM(E20:E25)</f>
         <v>115483</v>
@@ -3499,7 +3512,7 @@
         <v>134079</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3513,25 +3526,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.46484375" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.1328125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -3542,7 +3555,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
@@ -3553,7 +3566,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="27" t="s">
         <v>44</v>
       </c>
@@ -3566,7 +3579,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>45</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="38.25" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
@@ -3624,36 +3637,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>121</v>
-      </c>
       <c r="J7" s="74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>54</v>
       </c>
@@ -3661,16 +3674,16 @@
         <v>55</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>40</v>
@@ -3680,24 +3693,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
-        <v>54</v>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>40</v>
@@ -3707,24 +3720,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>54</v>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>40</v>
@@ -3734,24 +3747,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>54</v>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>40</v>
@@ -3761,7 +3774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="35" t="s">
         <v>54</v>
       </c>
@@ -3769,16 +3782,16 @@
         <v>55</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>40</v>
@@ -3788,14 +3801,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="62" t="s">
         <v>82</v>
       </c>
@@ -3804,7 +3817,7 @@
       </c>
       <c r="D16" s="62"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
         <v>84</v>
       </c>
@@ -3813,7 +3826,7 @@
       </c>
       <c r="D17" s="63"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="62" t="s">
         <v>86</v>
       </c>
@@ -3822,7 +3835,7 @@
       </c>
       <c r="D18" s="62"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="63" t="s">
         <v>88</v>
       </c>
@@ -3831,7 +3844,7 @@
       </c>
       <c r="D19" s="63"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="62" t="s">
         <v>54</v>
       </c>
@@ -3839,10 +3852,10 @@
         <v>90</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>91</v>
       </c>
@@ -3853,7 +3866,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="62" t="s">
         <v>94</v>
       </c>
@@ -3864,7 +3877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="63" t="s">
         <v>97</v>
       </c>
@@ -3875,7 +3888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="64" t="s">
         <v>99</v>
       </c>
@@ -3898,40 +3911,40 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="25"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="20"/>
       <c r="C3" s="18"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -3951,47 +3964,47 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="31.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:7" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="str">
         <f>SEC_Processes!D8</f>
         <v>ELEC_FIN_DEM</v>
@@ -4002,7 +4015,7 @@
       </c>
       <c r="D8" s="29" t="str">
         <f>SEC_Comm!D8</f>
-        <v>ELEC_LV</v>
+        <v>ELEC_HV-HV</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>SEC_Comm!D10</f>
@@ -4015,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="34" t="str">
         <f>SEC_Processes!D12</f>
         <v>HEAT_FIN_DEM</v>
@@ -4039,10 +4052,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="39"/>
     </row>
   </sheetData>
@@ -4055,37 +4068,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
     <col min="3" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.5546875" customWidth="1"/>
+    <col min="5" max="6" width="8.53125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="15" max="15" width="14.53125" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="69" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B5" s="40" t="s">
         <v>31</v>
       </c>
@@ -4114,37 +4127,37 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-    </row>
-    <row r="7" spans="2:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+    </row>
+    <row r="7" spans="2:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="31" t="str">
         <f>SEC_Comm!D10</f>
         <v>ELEC_FIN</v>
@@ -4182,7 +4195,7 @@
         <v>834.83506041162809</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="33" t="str">
         <f>SEC_Comm!D14</f>
         <v>HEAT_FIN</v>
@@ -4221,17 +4234,17 @@
       </c>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="94"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B12" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="96"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f>B8</f>
         <v>ELEC_FIN</v>
@@ -4240,7 +4253,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f>B9</f>
         <v>HEAT_FIN</v>
@@ -4249,10 +4262,10 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K17" s="17"/>
     </row>
-    <row r="19" spans="11:11" ht="13.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="11:11" ht="13.7" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B12:C12"/>
@@ -4266,6 +4279,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -4442,12 +4461,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4458,6 +4471,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233FBB46-FAE6-4387-83FB-D21CAE108F15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4476,19 +4502,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
